--- a/data_year/zb/卫生/各类医疗卫生机构医疗服务及床位利用/各类医疗卫生机构平均开放病床.xlsx
+++ b/data_year/zb/卫生/各类医疗卫生机构医疗服务及床位利用/各类医疗卫生机构平均开放病床.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,59 +1172,120 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00279715</v>
+        <v>279715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01162853</v>
+        <v>1162853</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00039915</v>
+        <v>39915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00936591</v>
+        <v>936591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00115917</v>
+        <v>115917</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.01313361</v>
+        <v>1313361</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00020753</v>
+        <v>20753</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06776727</v>
+        <v>6776727</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0132517</v>
+        <v>1325170</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08611779</v>
+        <v>8611779</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01535405</v>
+        <v>1535405</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00239799</v>
+        <v>239799</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00083714</v>
+        <v>83714</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00038748</v>
+        <v>38748</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.00210021</v>
+        <v>210021</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04438904</v>
+        <v>4438904</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00011809</v>
+        <v>11809</v>
       </c>
       <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>284760</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1289096</v>
+      </c>
+      <c r="D13" t="n">
+        <v>38282</v>
+      </c>
+      <c r="E13" t="n">
+        <v>980221</v>
+      </c>
+      <c r="F13" t="n">
+        <v>123496</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1323381</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18486</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7052387</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1334912</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8911816</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1556182</v>
+      </c>
+      <c r="N13" t="n">
+        <v>246478</v>
+      </c>
+      <c r="O13" t="n">
+        <v>97801</v>
+      </c>
+      <c r="P13" t="n">
+        <v>38672</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>220659</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4523102</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11531</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
